--- a/RepairsManager.WriteOffModule/WorkOffTemplate.xlsx
+++ b/RepairsManager.WriteOffModule/WorkOffTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.ivanou\source\repos\RepairsManager\RepairsManager.WriteOffModule\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ACF190-CD10-4D7D-BBBF-087FEF5AEDE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -359,166 +360,168 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Абзац" xfId="3"/>
-    <cellStyle name="Обычный 2" xfId="4"/>
-    <cellStyle name="Подстрочный" xfId="2"/>
-    <cellStyle name="ПоляЗаполнения" xfId="1"/>
+    <cellStyle name="Абзац" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Подстрочный" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="ПоляЗаполнения" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,6 +612,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -644,6 +664,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -819,39 +856,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18" style="38" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="8" style="38" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="3.5" style="38" customWidth="1"/>
-    <col min="13" max="13" width="4.5" style="38" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="38" customWidth="1"/>
-    <col min="15" max="15" width="3.5" style="38" customWidth="1"/>
-    <col min="16" max="16" width="4" style="38" customWidth="1"/>
-    <col min="17" max="17" width="6.1640625" style="38" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" style="38" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="38" customWidth="1"/>
-    <col min="20" max="20" width="19.1640625" style="61" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="8" style="24" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="24" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="24" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="24" customWidth="1"/>
+    <col min="15" max="15" width="3.5" style="24" customWidth="1"/>
+    <col min="16" max="16" width="4" style="24" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" style="24" customWidth="1"/>
+    <col min="18" max="18" width="2.33203125" style="24" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="24" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -869,21 +906,21 @@
       <c r="L1" s="6"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -891,14 +928,14 @@
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -912,39 +949,39 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:20" s="3" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -961,14 +998,14 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -994,73 +1031,73 @@
     </row>
     <row r="7" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:20" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="24"/>
+      <c r="T8" s="17"/>
     </row>
     <row r="9" spans="1:20" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
     </row>
     <row r="10" spans="1:20" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -1082,394 +1119,376 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="24"/>
+      <c r="T10" s="17"/>
     </row>
     <row r="11" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="26" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="31"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="20"/>
     </row>
     <row r="12" spans="1:20" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
     </row>
     <row r="14" spans="1:20" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
     </row>
     <row r="15" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
     </row>
     <row r="16" spans="1:20" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
     </row>
     <row r="17" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
     </row>
     <row r="18" spans="1:20" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="41" t="s">
+      <c r="I18" s="60"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40" t="s">
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="42" t="s">
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="T18" s="44"/>
+      <c r="T18" s="58"/>
     </row>
     <row r="19" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
     </row>
     <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
     </row>
     <row r="23" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="38"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="24"/>
     </row>
     <row r="24" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="59" t="s">
+      <c r="K24" s="50"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="60"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:20" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A21:T21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="L13:T13"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
+  <mergeCells count="33">
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="N23:R23"/>
     <mergeCell ref="N24:R24"/>
@@ -1484,6 +1503,25 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A21:T21"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.11811023622047245"/>
